--- a/CameraTriggerR2PCB/Issues to fix.xlsx
+++ b/CameraTriggerR2PCB/Issues to fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">J1 symbols backwards on PCB </t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Rev 2 issues to fix</t>
+  </si>
+  <si>
+    <t>Add stensiling</t>
+  </si>
+  <si>
+    <t>Wrong footprint for J12</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,6 +481,16 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
